--- a/smoc-admin-ui/src/main/resources/static/files/templates/account.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/templates/account.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">客户账号信息!$A$1:$B$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">客户账号信息!$B$1:$C$76</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -158,12 +158,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,7 +185,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="黑体"/>
@@ -218,19 +217,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="仿宋_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
@@ -243,7 +229,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,29 +256,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +287,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -308,17 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +325,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -342,14 +350,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -358,14 +358,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,13 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -407,6 +393,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,169 +453,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +662,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -684,8 +679,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,30 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -745,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,137 +743,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -933,16 +919,13 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,13 +1001,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3295015</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>5005528</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>235532</xdr:rowOff>
@@ -1050,7 +1033,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5247640" y="85725"/>
+          <a:off x="5933440" y="85725"/>
           <a:ext cx="1710055" cy="463550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1067,13 +1050,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3295015</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>5005070</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>234950</xdr:rowOff>
@@ -1099,7 +1082,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5247640" y="85725"/>
+          <a:off x="5933440" y="85725"/>
           <a:ext cx="1710055" cy="463550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1399,396 +1382,396 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B76"/>
+  <dimension ref="B1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="67.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="67.75" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="24.75" customHeight="1" spans="2:3">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:2">
-      <c r="A2" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="2:3">
       <c r="B2" s="13"/>
-    </row>
-    <row r="3" s="11" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" s="11" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A4" s="16" t="s">
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A5" s="16" t="s">
+    <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A6" s="16" t="s">
+    <row r="6" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A7" s="16" t="s">
+    <row r="7" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A8" s="16" t="s">
+    <row r="8" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A9" s="16" t="s">
+    <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A10" s="14" t="s">
+    <row r="10" s="11" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A12" s="17" t="s">
+    <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A13" s="16" t="s">
+    <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A14" s="16" t="s">
+    <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A15" s="16" t="s">
+    <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A16" s="16" t="s">
+    <row r="16" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A17" s="16"/>
+    <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B17" s="16"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A18" s="16"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B18" s="16"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A19" s="16"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B19" s="16"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A20" s="16"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B20" s="16"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A21" s="18" t="s">
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="24.75" customHeight="1" spans="2:3">
+      <c r="B21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A22" s="16" t="s">
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
+      <c r="B22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A23" s="20" t="s">
+    <row r="23" s="3" customFormat="1" ht="27" customHeight="1" spans="2:3">
+      <c r="B23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:2">
-      <c r="A24" s="16" t="s">
+    <row r="24" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:3">
+      <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" ht="23" customHeight="1" spans="1:2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-    </row>
-    <row r="26" ht="23" customHeight="1" spans="1:2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-    </row>
-    <row r="27" ht="23" customHeight="1" spans="1:2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-    </row>
-    <row r="28" ht="23" customHeight="1" spans="1:2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-    </row>
-    <row r="29" ht="23" customHeight="1" spans="1:2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-    </row>
-    <row r="30" ht="23" customHeight="1" spans="1:2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-    </row>
-    <row r="31" ht="23" customHeight="1" spans="1:2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-    </row>
-    <row r="32" ht="25" customHeight="1" spans="1:2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-    </row>
-    <row r="33" ht="25" customHeight="1" spans="1:2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-    </row>
-    <row r="34" ht="25" customHeight="1" spans="1:2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-    </row>
-    <row r="35" ht="25" customHeight="1" spans="1:2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-    </row>
-    <row r="36" ht="25" customHeight="1" spans="1:2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-    </row>
-    <row r="37" ht="25" customHeight="1" spans="1:2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-    </row>
-    <row r="38" ht="25" customHeight="1" spans="1:2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-    </row>
-    <row r="39" ht="25" customHeight="1" spans="1:2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-    </row>
-    <row r="40" ht="25" customHeight="1" spans="1:2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-    </row>
-    <row r="41" ht="25" customHeight="1" spans="1:2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-    </row>
-    <row r="42" ht="25" customHeight="1" spans="1:2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-    </row>
-    <row r="43" ht="25" customHeight="1" spans="1:2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-    </row>
-    <row r="44" ht="25" customHeight="1" spans="1:2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-    </row>
-    <row r="45" ht="25" customHeight="1" spans="1:2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-    </row>
-    <row r="46" ht="25" customHeight="1" spans="1:2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" ht="25" customHeight="1" spans="1:2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-    </row>
-    <row r="48" ht="25" customHeight="1" spans="1:2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-    </row>
-    <row r="49" ht="25" customHeight="1" spans="1:2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-    </row>
-    <row r="50" ht="25" customHeight="1" spans="1:2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-    </row>
-    <row r="51" ht="25" customHeight="1" spans="1:2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-    </row>
-    <row r="52" ht="25" customHeight="1" spans="1:2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-    </row>
-    <row r="53" ht="25" customHeight="1" spans="1:2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-    </row>
-    <row r="54" ht="25" customHeight="1" spans="1:2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-    </row>
-    <row r="55" ht="25" customHeight="1" spans="1:2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-    </row>
-    <row r="56" ht="25" customHeight="1" spans="1:2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-    </row>
-    <row r="57" ht="25" customHeight="1" spans="1:2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-    </row>
-    <row r="58" ht="25" customHeight="1" spans="1:2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-    </row>
-    <row r="59" ht="25" customHeight="1" spans="1:2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-    </row>
-    <row r="60" ht="25" customHeight="1" spans="1:2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-    </row>
-    <row r="61" ht="25" customHeight="1" spans="1:2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-    </row>
-    <row r="62" ht="25" customHeight="1" spans="1:2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-    </row>
-    <row r="63" ht="25" customHeight="1" spans="1:2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-    </row>
-    <row r="64" ht="25" customHeight="1" spans="1:2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-    </row>
-    <row r="65" ht="25" customHeight="1" spans="1:2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-    </row>
-    <row r="66" ht="25" customHeight="1" spans="1:2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-    </row>
-    <row r="67" ht="25" customHeight="1" spans="1:2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-    </row>
-    <row r="68" ht="25" customHeight="1" spans="1:2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-    </row>
-    <row r="69" ht="25" customHeight="1" spans="1:2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-    </row>
-    <row r="70" ht="25" customHeight="1" spans="1:2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-    </row>
-    <row r="71" ht="24" customHeight="1" spans="1:2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-    </row>
-    <row r="72" ht="24" customHeight="1" spans="1:2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-    </row>
-    <row r="73" ht="24" customHeight="1" spans="1:2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-    </row>
-    <row r="74" ht="24" customHeight="1" spans="1:2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-    </row>
-    <row r="75" ht="24" customHeight="1" spans="1:2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-    </row>
-    <row r="76" ht="24" customHeight="1" spans="1:2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
+    <row r="25" ht="23" customHeight="1" spans="2:3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" ht="23" customHeight="1" spans="2:3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" ht="23" customHeight="1" spans="2:3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" ht="23" customHeight="1" spans="2:3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="2:3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" ht="23" customHeight="1" spans="2:3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="2:3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" ht="25" customHeight="1" spans="2:3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" ht="25" customHeight="1" spans="2:3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" ht="25" customHeight="1" spans="2:3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" ht="25" customHeight="1" spans="2:3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" ht="25" customHeight="1" spans="2:3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+    </row>
+    <row r="37" ht="25" customHeight="1" spans="2:3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+    </row>
+    <row r="38" ht="25" customHeight="1" spans="2:3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+    </row>
+    <row r="39" ht="25" customHeight="1" spans="2:3">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+    </row>
+    <row r="40" ht="25" customHeight="1" spans="2:3">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+    </row>
+    <row r="41" ht="25" customHeight="1" spans="2:3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" ht="25" customHeight="1" spans="2:3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" ht="25" customHeight="1" spans="2:3">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+    </row>
+    <row r="44" ht="25" customHeight="1" spans="2:3">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+    </row>
+    <row r="45" ht="25" customHeight="1" spans="2:3">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+    </row>
+    <row r="46" ht="25" customHeight="1" spans="2:3">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+    </row>
+    <row r="47" ht="25" customHeight="1" spans="2:3">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+    </row>
+    <row r="48" ht="25" customHeight="1" spans="2:3">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+    </row>
+    <row r="49" ht="25" customHeight="1" spans="2:3">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+    </row>
+    <row r="50" ht="25" customHeight="1" spans="2:3">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+    </row>
+    <row r="51" ht="25" customHeight="1" spans="2:3">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+    </row>
+    <row r="52" ht="25" customHeight="1" spans="2:3">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+    </row>
+    <row r="53" ht="25" customHeight="1" spans="2:3">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+    </row>
+    <row r="54" ht="25" customHeight="1" spans="2:3">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+    </row>
+    <row r="55" ht="25" customHeight="1" spans="2:3">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+    </row>
+    <row r="56" ht="25" customHeight="1" spans="2:3">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+    </row>
+    <row r="57" ht="25" customHeight="1" spans="2:3">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58" ht="25" customHeight="1" spans="2:3">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+    </row>
+    <row r="59" ht="25" customHeight="1" spans="2:3">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+    </row>
+    <row r="60" ht="25" customHeight="1" spans="2:3">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+    </row>
+    <row r="61" ht="25" customHeight="1" spans="2:3">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+    </row>
+    <row r="62" ht="25" customHeight="1" spans="2:3">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+    </row>
+    <row r="63" ht="25" customHeight="1" spans="2:3">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+    </row>
+    <row r="64" ht="25" customHeight="1" spans="2:3">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+    </row>
+    <row r="65" ht="25" customHeight="1" spans="2:3">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+    </row>
+    <row r="66" ht="25" customHeight="1" spans="2:3">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+    </row>
+    <row r="67" ht="25" customHeight="1" spans="2:3">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68" ht="25" customHeight="1" spans="2:3">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+    </row>
+    <row r="69" ht="25" customHeight="1" spans="2:3">
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+    </row>
+    <row r="70" ht="25" customHeight="1" spans="2:3">
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+    </row>
+    <row r="71" ht="24" customHeight="1" spans="2:3">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+    </row>
+    <row r="72" ht="24" customHeight="1" spans="2:3">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+    </row>
+    <row r="73" ht="24" customHeight="1" spans="2:3">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+    </row>
+    <row r="74" ht="24" customHeight="1" spans="2:3">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+    </row>
+    <row r="75" ht="24" customHeight="1" spans="2:3">
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+    </row>
+    <row r="76" ht="24" customHeight="1" spans="2:3">
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B1:C2"/>
   </mergeCells>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.314583333333333" footer="0.314583333333333"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="600"/>
@@ -1800,378 +1783,378 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B82"/>
+  <dimension ref="B1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="67.75" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="67.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="24.75" customHeight="1" spans="2:3">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:2">
-      <c r="A2" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="2:3">
       <c r="B2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="24.75" customHeight="1" spans="2:3">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="24.75" customHeight="1" spans="2:3">
+      <c r="B4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="2" customFormat="1" ht="24.75" customHeight="1" spans="2:3">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="2" customFormat="1" ht="24.75" customHeight="1" spans="2:3">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="2" customFormat="1" ht="24.75" customHeight="1" spans="2:3">
+      <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="2" customFormat="1" ht="24.75" customHeight="1" spans="2:3">
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:2">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:3">
+      <c r="B9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A10" s="8"/>
+    <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B10" s="8"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A11" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B11" s="8"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A12" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B12" s="8"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A13" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B13" s="8"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A14" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B14" s="8"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A15" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B15" s="8"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A16" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B16" s="8"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A17" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B17" s="8"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A18" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B18" s="8"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A19" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B19" s="8"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A20" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B20" s="8"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A21" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B21" s="8"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A22" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B22" s="8"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A23" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B23" s="8"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A24" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B24" s="8"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A25" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B25" s="8"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A26" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B26" s="8"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A27" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B27" s="8"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A28" s="8"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B28" s="8"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A29" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B29" s="8"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A30" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B30" s="8"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A31" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B31" s="8"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A32" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B32" s="8"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A33" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B33" s="8"/>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A34" s="9"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B34" s="9"/>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A35" s="9"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B35" s="9"/>
-    </row>
-    <row r="36" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A36" s="9"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B36" s="9"/>
-    </row>
-    <row r="37" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A37" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B37" s="9"/>
-    </row>
-    <row r="38" s="3" customFormat="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A38" s="9"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="24.75" customHeight="1" spans="2:3">
       <c r="B38" s="9"/>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="25.5" customHeight="1" spans="1:2">
-      <c r="A39" s="9"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="25.5" customHeight="1" spans="2:3">
       <c r="B39" s="9"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:2">
-      <c r="A40" s="9"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="24.75" customHeight="1" spans="2:3">
       <c r="B40" s="9"/>
-    </row>
-    <row r="41" s="3" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A41" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="27" customHeight="1" spans="2:3">
       <c r="B41" s="9"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="21.75" customHeight="1" spans="1:2">
-      <c r="A42" s="9"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:3">
       <c r="B42" s="9"/>
-    </row>
-    <row r="43" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A43" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B43" s="9"/>
-    </row>
-    <row r="44" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A44" s="9"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B44" s="9"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A45" s="9"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B45" s="9"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A46" s="9"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B46" s="9"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A47" s="9"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B47" s="9"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A48" s="9"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B48" s="9"/>
-    </row>
-    <row r="49" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A49" s="9"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B49" s="9"/>
-    </row>
-    <row r="50" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A50" s="9"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B50" s="9"/>
-    </row>
-    <row r="51" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A51" s="9"/>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B51" s="9"/>
-    </row>
-    <row r="52" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A52" s="9"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B52" s="9"/>
-    </row>
-    <row r="53" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A53" s="9"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B53" s="9"/>
-    </row>
-    <row r="54" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A54" s="9"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B54" s="9"/>
-    </row>
-    <row r="55" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A55" s="9"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B55" s="9"/>
-    </row>
-    <row r="56" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A56" s="9"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B56" s="9"/>
-    </row>
-    <row r="57" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A57" s="9"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B57" s="9"/>
-    </row>
-    <row r="58" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A58" s="9"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B58" s="9"/>
-    </row>
-    <row r="59" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A59" s="9"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B59" s="9"/>
-    </row>
-    <row r="60" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A60" s="9"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B60" s="9"/>
-    </row>
-    <row r="61" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A61" s="9"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B61" s="9"/>
-    </row>
-    <row r="62" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A62" s="9"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B62" s="9"/>
-    </row>
-    <row r="63" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A63" s="9"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B63" s="9"/>
-    </row>
-    <row r="64" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A64" s="9"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B64" s="9"/>
-    </row>
-    <row r="65" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A65" s="9"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B65" s="9"/>
-    </row>
-    <row r="66" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A66" s="9"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B66" s="9"/>
-    </row>
-    <row r="67" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A67" s="9"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B67" s="9"/>
-    </row>
-    <row r="68" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A68" s="9"/>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B68" s="9"/>
-    </row>
-    <row r="69" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A69" s="9"/>
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B69" s="9"/>
-    </row>
-    <row r="70" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A70" s="9"/>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B70" s="9"/>
-    </row>
-    <row r="71" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A71" s="9"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B71" s="9"/>
-    </row>
-    <row r="72" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A72" s="9"/>
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B72" s="9"/>
-    </row>
-    <row r="73" s="3" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A73" s="9"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" s="3" customFormat="1" ht="23" customHeight="1" spans="2:3">
       <c r="B73" s="9"/>
-    </row>
-    <row r="74" s="3" customFormat="1" ht="12" spans="1:2">
-      <c r="A74" s="9"/>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" s="3" customFormat="1" ht="12" spans="2:3">
       <c r="B74" s="9"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="10"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="2:3">
       <c r="B75" s="10"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="10"/>
+      <c r="C75" s="10"/>
+    </row>
+    <row r="76" spans="2:3">
       <c r="B76" s="10"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="10"/>
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77" spans="2:3">
       <c r="B77" s="10"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="10"/>
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78" s="10"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="10"/>
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" spans="2:3">
       <c r="B79" s="10"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="10"/>
+      <c r="C79" s="10"/>
+    </row>
+    <row r="80" spans="2:3">
       <c r="B80" s="10"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="10"/>
+      <c r="C80" s="10"/>
+    </row>
+    <row r="81" spans="2:3">
       <c r="B81" s="10"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="10"/>
+      <c r="C81" s="10"/>
+    </row>
+    <row r="82" spans="2:3">
       <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:C2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/smoc-admin-ui/src/main/resources/static/files/templates/account.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/templates/account.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">客户账号信息!$B$1:$C$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">客户账号信息!$B$1:$C$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -158,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -229,13 +229,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -249,8 +242,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,29 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -295,28 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -325,21 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -350,7 +336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,7 +344,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,91 +393,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,91 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +628,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -662,7 +677,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,31 +686,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,6 +708,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -731,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,133 +743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,104 +995,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3295015</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5005528</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>235532</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5933440" y="85725"/>
-          <a:ext cx="1710055" cy="463550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3295015</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5005070</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>234950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5933440" y="85725"/>
-          <a:ext cx="1710055" cy="463550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1382,10 +1284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C76"/>
+  <dimension ref="B1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1570,202 +1472,6 @@
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" ht="23" customHeight="1" spans="2:3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" ht="23" customHeight="1" spans="2:3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" ht="23" customHeight="1" spans="2:3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-    </row>
-    <row r="31" ht="23" customHeight="1" spans="2:3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" ht="25" customHeight="1" spans="2:3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" ht="25" customHeight="1" spans="2:3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" ht="25" customHeight="1" spans="2:3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" ht="25" customHeight="1" spans="2:3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" ht="25" customHeight="1" spans="2:3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-    </row>
-    <row r="37" ht="25" customHeight="1" spans="2:3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" ht="25" customHeight="1" spans="2:3">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-    </row>
-    <row r="39" ht="25" customHeight="1" spans="2:3">
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-    </row>
-    <row r="40" ht="25" customHeight="1" spans="2:3">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-    </row>
-    <row r="41" ht="25" customHeight="1" spans="2:3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-    </row>
-    <row r="42" ht="25" customHeight="1" spans="2:3">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-    </row>
-    <row r="43" ht="25" customHeight="1" spans="2:3">
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-    </row>
-    <row r="44" ht="25" customHeight="1" spans="2:3">
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-    </row>
-    <row r="45" ht="25" customHeight="1" spans="2:3">
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-    </row>
-    <row r="46" ht="25" customHeight="1" spans="2:3">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-    </row>
-    <row r="47" ht="25" customHeight="1" spans="2:3">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-    </row>
-    <row r="48" ht="25" customHeight="1" spans="2:3">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" ht="25" customHeight="1" spans="2:3">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-    </row>
-    <row r="50" ht="25" customHeight="1" spans="2:3">
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" ht="25" customHeight="1" spans="2:3">
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" ht="25" customHeight="1" spans="2:3">
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" ht="25" customHeight="1" spans="2:3">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" ht="25" customHeight="1" spans="2:3">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" ht="25" customHeight="1" spans="2:3">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" ht="25" customHeight="1" spans="2:3">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" ht="25" customHeight="1" spans="2:3">
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" ht="25" customHeight="1" spans="2:3">
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-    </row>
-    <row r="59" ht="25" customHeight="1" spans="2:3">
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-    </row>
-    <row r="60" ht="25" customHeight="1" spans="2:3">
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-    </row>
-    <row r="61" ht="25" customHeight="1" spans="2:3">
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" ht="25" customHeight="1" spans="2:3">
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" ht="25" customHeight="1" spans="2:3">
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" ht="25" customHeight="1" spans="2:3">
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-    </row>
-    <row r="65" ht="25" customHeight="1" spans="2:3">
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-    </row>
-    <row r="66" ht="25" customHeight="1" spans="2:3">
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-    </row>
-    <row r="67" ht="25" customHeight="1" spans="2:3">
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-    </row>
-    <row r="68" ht="25" customHeight="1" spans="2:3">
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-    </row>
-    <row r="69" ht="25" customHeight="1" spans="2:3">
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-    </row>
-    <row r="70" ht="25" customHeight="1" spans="2:3">
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-    </row>
-    <row r="71" ht="24" customHeight="1" spans="2:3">
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-    </row>
-    <row r="72" ht="24" customHeight="1" spans="2:3">
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-    </row>
-    <row r="73" ht="24" customHeight="1" spans="2:3">
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-    </row>
-    <row r="74" ht="24" customHeight="1" spans="2:3">
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-    </row>
-    <row r="75" ht="24" customHeight="1" spans="2:3">
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-    </row>
-    <row r="76" ht="24" customHeight="1" spans="2:3">
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
@@ -1776,7 +1482,6 @@
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.314583333333333" footer="0.314583333333333"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2158,7 +1863,6 @@
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
